--- a/Optimizations/CompareResults.xlsx
+++ b/Optimizations/CompareResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\Optimizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\Optimizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{031672EE-6E4A-445A-A34D-CEA420F3163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7164664-D8C2-4171-8125-2481FE2ED762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17484" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{A9E247FD-8C90-498A-8AA5-33428406B16A}"/>
+    <workbookView xWindow="-6330" yWindow="2925" windowWidth="18420" windowHeight="8385" xr2:uid="{A9E247FD-8C90-498A-8AA5-33428406B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>objective</t>
   </si>
@@ -62,12 +62,58 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Injected Time Delay</t>
+  </si>
+  <si>
+    <t>1ms</t>
+  </si>
+  <si>
+    <t>________GeneticAlgorithm________</t>
+  </si>
+  <si>
+    <t>objective: 2.6353081125307654e-05</t>
+  </si>
+  <si>
+    <t>variables: [420.96671228 420.96702046]</t>
+  </si>
+  <si>
+    <t>nfe: 4065</t>
+  </si>
+  <si>
+    <t>time: 68.155014</t>
+  </si>
+  <si>
+    <t>_________ParticlSwarm________</t>
+  </si>
+  <si>
+    <t>objective: 2.5505653695745423e-05</t>
+  </si>
+  <si>
+    <t>variables: [420.96931606 420.96902172]</t>
+  </si>
+  <si>
+    <t>nfe: 10800</t>
+  </si>
+  <si>
+    <t>time: 181.781286</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,12 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +466,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F944302-1B5F-41B0-A9A2-91CBBDE9084E}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>1</v>
       </c>
@@ -451,195 +501,362 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>2.5750773886556999E-5</v>
-      </c>
-      <c r="D2">
-        <v>2.0878831088566501E-4</v>
+      <c r="C2" s="1">
+        <v>2.59386596326294E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.3504201414634702E-5</v>
       </c>
       <c r="E2">
-        <v>1.8335348511300199E-4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8.6127261170076895E-5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2.92419566108037E-5</v>
-      </c>
-      <c r="H2" s="2">
-        <f>AVERAGE(C2:G2)</f>
-        <v>1.0665235753322092E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+        <v>7.41568963690042E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.6075739413045E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.3932192121046601E-4</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H12" si="0">AVERAGE(C2:G2)</f>
+        <v>1.9528189707216344E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4124</v>
+        <v>4557</v>
       </c>
       <c r="D3">
-        <v>5622</v>
+        <v>5711</v>
       </c>
       <c r="E3">
-        <v>2752</v>
+        <v>3701</v>
       </c>
       <c r="F3">
-        <v>1775</v>
+        <v>3168</v>
       </c>
       <c r="G3">
-        <v>5093</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="0">AVERAGE(C3:G3)</f>
-        <v>3873.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+        <v>3716</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>4170.6000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.4998739999999999</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="D4">
-        <v>2.031107</v>
+        <v>1.884998</v>
       </c>
       <c r="E4">
-        <v>0.96870599999999996</v>
+        <v>1.2259990000000001</v>
       </c>
       <c r="F4">
-        <v>0.62495100000000003</v>
+        <v>1.1669989999999999</v>
       </c>
       <c r="G4">
-        <v>1.8748450000000001</v>
-      </c>
-      <c r="H4" s="2">
+        <v>1.3490009999999999</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>1.3998965999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+        <v>1.4545994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>420.96720213999998</v>
+      </c>
+      <c r="D5">
+        <v>420.96535019999999</v>
+      </c>
+      <c r="E5">
+        <v>420.89341657</v>
+      </c>
+      <c r="F5">
+        <v>420.96652870999998</v>
+      </c>
+      <c r="G5">
+        <v>420.96828693999998</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>420.95215691200002</v>
+      </c>
+      <c r="I5" s="3">
+        <f>420.9687-H5</f>
+        <v>1.6543087999991712E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>420.96994940000002</v>
+      </c>
+      <c r="D6">
+        <v>420.95727879999998</v>
+      </c>
+      <c r="E6">
+        <v>420.96962126</v>
+      </c>
+      <c r="F6">
+        <v>420.96872902000001</v>
+      </c>
+      <c r="G6">
+        <v>420.99878247999999</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>420.97287219199995</v>
+      </c>
+      <c r="I6" s="3">
+        <f>420.9687-H6</f>
+        <v>-4.1721919999417878E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>2.54683598654992E-5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.5455180207245501E-5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.55082375133497E-5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.54605855616318E-5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.5459030439378599E-5</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="C8" s="1">
+        <v>3.6371008036439801E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5456414164182199E-5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5474209110143399E-5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.545566394474E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.4663672828874001E-4</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>2.5470278717420961E-5</v>
-      </c>
-      <c r="I6" s="2">
-        <f>H6/H2</f>
-        <v>0.23881589968123562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+        <v>5.1878804708849083E-5</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
-        <v>12000</v>
-      </c>
-      <c r="E7">
-        <v>13200</v>
-      </c>
-      <c r="F7">
-        <v>9600</v>
-      </c>
-      <c r="G7">
-        <v>12400</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="C9">
+        <v>11200</v>
+      </c>
+      <c r="D9">
+        <v>11400</v>
+      </c>
+      <c r="E9">
+        <v>10200</v>
+      </c>
+      <c r="F9">
+        <v>10200</v>
+      </c>
+      <c r="G9">
+        <v>10800</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>11440</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" ref="I7:I8" si="1">H7/H3</f>
-        <v>2.953630073324383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+        <v>10760</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1.499898</v>
-      </c>
-      <c r="D8">
-        <v>1.781101</v>
-      </c>
-      <c r="E8">
-        <v>1.9977050000000001</v>
-      </c>
-      <c r="F8">
-        <v>1.4530240000000001</v>
-      </c>
-      <c r="G8">
-        <v>1.796751</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="C10">
+        <v>1.6549990000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.4480010000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.375</v>
+      </c>
+      <c r="F10">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.621999</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>1.7056958000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2184441336595861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+        <v>1.5245997999999998</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>420.96269569999998</v>
+      </c>
+      <c r="D11">
+        <v>420.96873762000001</v>
+      </c>
+      <c r="E11">
+        <v>420.96891478999999</v>
+      </c>
+      <c r="F11">
+        <v>420.96879396000003</v>
+      </c>
+      <c r="G11">
+        <v>420.99962428999999</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>420.97375327199995</v>
+      </c>
+      <c r="I11" s="3">
+        <f>420.9687-H11</f>
+        <v>-5.0532719999409892E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>420.96168253000002</v>
+      </c>
+      <c r="D12">
+        <v>420.96884676000002</v>
+      </c>
+      <c r="E12">
+        <v>420.96909679999999</v>
+      </c>
+      <c r="F12">
+        <v>420.96870225999999</v>
+      </c>
+      <c r="G12">
+        <v>420.96611924000001</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>420.96688951799996</v>
+      </c>
+      <c r="I12" s="3">
+        <f>420.9687-H12</f>
+        <v>1.8104820000530708E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Optimizations/CompareResults.xlsx
+++ b/Optimizations/CompareResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\Optimizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7164664-D8C2-4171-8125-2481FE2ED762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71301F6-DD28-4B38-B079-71D757F28FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6330" yWindow="2925" windowWidth="18420" windowHeight="8385" xr2:uid="{A9E247FD-8C90-498A-8AA5-33428406B16A}"/>
+    <workbookView xWindow="-14970" yWindow="3000" windowWidth="21600" windowHeight="6795" xr2:uid="{A9E247FD-8C90-498A-8AA5-33428406B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>objective</t>
   </si>
@@ -70,40 +71,22 @@
     <t>y</t>
   </si>
   <si>
-    <t>Injected Time Delay</t>
+    <t>iters</t>
   </si>
   <si>
-    <t>1ms</t>
+    <t>1 ms</t>
   </si>
   <si>
-    <t>________GeneticAlgorithm________</t>
+    <t>10 ms</t>
   </si>
   <si>
-    <t>objective: 2.6353081125307654e-05</t>
+    <t>(value-min)/(max-min)</t>
   </si>
   <si>
-    <t>variables: [420.96671228 420.96702046]</t>
+    <t>100 ms</t>
   </si>
   <si>
-    <t>nfe: 4065</t>
-  </si>
-  <si>
-    <t>time: 68.155014</t>
-  </si>
-  <si>
-    <t>_________ParticlSwarm________</t>
-  </si>
-  <si>
-    <t>objective: 2.5505653695745423e-05</t>
-  </si>
-  <si>
-    <t>variables: [420.96931606 420.96902172]</t>
-  </si>
-  <si>
-    <t>nfe: 10800</t>
-  </si>
-  <si>
-    <t>time: 181.781286</t>
+    <t>50 ms</t>
   </si>
 </sst>
 </file>
@@ -111,16 +94,51 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,19 +157,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +245,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.000000">
+                  <c:v>427.649698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F4B-4430-A8F7-065BB101B7BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1254.9646263999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F4B-4430-A8F7-065BB101B7BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="681590152"/>
+        <c:axId val="681590480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="681590152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681590480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="681590480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681590152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FA3401-0D05-1305-109C-FD1060C292F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,19 +1497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F944302-1B5F-41B0-A9A2-91CBBDE9084E}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>1</v>
       </c>
@@ -500,9 +1532,24 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="K1">
+        <v>4170.6000000000004</v>
+      </c>
+      <c r="L1">
+        <v>5762.6</v>
+      </c>
+      <c r="M1">
+        <v>4248.3999999999996</v>
+      </c>
+      <c r="N1">
+        <v>4257.2</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -523,340 +1570,1033 @@
       <c r="G2" s="1">
         <v>1.3932192121046601E-4</v>
       </c>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H12" si="0">AVERAGE(C2:G2)</f>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H14" si="0">AVERAGE(C2:G2)</f>
         <v>1.9528189707216344E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="K2">
+        <v>1.4545994</v>
+      </c>
+      <c r="L2">
+        <v>7.4992450000000002</v>
+      </c>
+      <c r="M2">
+        <v>43.785078999999996</v>
+      </c>
+      <c r="N2" s="2">
+        <v>427.649698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3">
+        <v>134</v>
+      </c>
+      <c r="E3" s="3">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3">
+        <v>131</v>
+      </c>
+      <c r="G3" s="3">
+        <v>116</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4557</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5711</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3701</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>3168</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>3716</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>4170.6000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1.6459999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1.884998</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1.2259990000000001</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1.1669989999999999</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1.3490009999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>1.4545994</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="K5">
+        <v>10760</v>
+      </c>
+      <c r="L5">
+        <v>13400</v>
+      </c>
+      <c r="M5">
+        <v>13280</v>
+      </c>
+      <c r="N5">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>420.96720213999998</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>420.96535019999999</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>420.89341657</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>420.96652870999998</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>420.96828693999998</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>420.95215691200002</v>
       </c>
-      <c r="I5" s="3">
-        <f>420.9687-H5</f>
+      <c r="I6" s="2">
+        <f>420.9687-H6</f>
         <v>1.6543087999991712E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="K6">
+        <v>1.5245997999999998</v>
+      </c>
+      <c r="L6">
+        <v>15.002452199999999</v>
+      </c>
+      <c r="M6">
+        <v>138.2456215</v>
+      </c>
+      <c r="N6">
+        <v>1254.9646263999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>420.96994940000002</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>420.95727879999998</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>420.96962126</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>420.96872902000001</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>420.99878247999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>420.97287219199995</v>
       </c>
-      <c r="I6" s="3">
-        <f>420.9687-H6</f>
+      <c r="I7" s="2">
+        <f>420.9687-H7</f>
         <v>-4.1721919999417878E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="1"/>
+      <c r="K8" s="7">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>3.6371008036439801E-5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>2.5456414164182199E-5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>2.5474209110143399E-5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>2.545566394474E-5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>1.4663672828874001E-4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>5.1878804708849083E-5</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+      <c r="I9" s="4"/>
+      <c r="K9" s="8">
+        <v>1.0114000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>56.8</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="K10" s="9">
+        <v>10.0168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>11200</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>11400</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>10200</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>10200</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>10800</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>10760</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>1.6549990000000001</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>1.4480010000000001</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>1.375</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>1.5229999999999999</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>1.621999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>1.5245997999999998</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>420.96269569999998</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>420.96873762000001</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>420.96891478999999</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>420.96879396000003</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>420.99962428999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>420.97375327199995</v>
       </c>
-      <c r="I11" s="3">
-        <f>420.9687-H11</f>
+      <c r="I13" s="2">
+        <f>420.9687-H13</f>
         <v>-5.0532719999409892E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>420.96168253000002</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>420.96884676000002</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>420.96909679999999</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>420.96870225999999</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>420.96611924000001</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>420.96688951799996</v>
       </c>
-      <c r="I12" s="3">
-        <f>420.9687-H12</f>
+      <c r="I14" s="2">
+        <f>420.9687-H14</f>
         <v>1.8104820000530708E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>7611</v>
+      </c>
+      <c r="D20">
+        <v>5950</v>
+      </c>
+      <c r="E20">
+        <v>7112</v>
+      </c>
+      <c r="F20">
+        <v>3461</v>
+      </c>
+      <c r="G20">
+        <v>4679</v>
+      </c>
+      <c r="H20" s="3">
+        <f>AVERAGE(C20:G20)</f>
+        <v>5762.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9.9594649999999998</v>
+      </c>
+      <c r="D21">
+        <v>7.7424090000000003</v>
+      </c>
+      <c r="E21">
+        <v>9.2109799999999993</v>
+      </c>
+      <c r="F21">
+        <v>4.5012559999999997</v>
+      </c>
+      <c r="G21">
+        <v>6.0821149999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <f>AVERAGE(C21:G21)</f>
+        <v>7.4992450000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>9800</v>
+      </c>
+      <c r="D22">
+        <v>12200</v>
+      </c>
+      <c r="E22">
+        <v>10200</v>
+      </c>
+      <c r="F22">
+        <v>23600</v>
+      </c>
+      <c r="G22">
+        <v>11200</v>
+      </c>
+      <c r="H22" s="3">
+        <f>AVERAGE(C22:G22)</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>10.984503</v>
+      </c>
+      <c r="D23">
+        <v>13.66639</v>
+      </c>
+      <c r="E23">
+        <v>11.403995</v>
+      </c>
+      <c r="F23">
+        <v>26.420895999999999</v>
+      </c>
+      <c r="G23">
+        <v>12.536477</v>
+      </c>
+      <c r="H23" s="2">
+        <f>AVERAGE(C23:G23)</f>
+        <v>15.002452199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4104</v>
+      </c>
+      <c r="D28">
+        <v>4473</v>
+      </c>
+      <c r="E28">
+        <v>4745</v>
+      </c>
+      <c r="F28">
+        <v>4667</v>
+      </c>
+      <c r="G28">
+        <v>3253</v>
+      </c>
+      <c r="H28" s="3">
+        <f>AVERAGE(C28:G28)</f>
+        <v>4248.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>42.298060999999997</v>
+      </c>
+      <c r="D29">
+        <v>46.072181999999998</v>
+      </c>
+      <c r="E29">
+        <v>48.921112999999998</v>
+      </c>
+      <c r="F29">
+        <v>48.119678999999998</v>
+      </c>
+      <c r="G29">
+        <v>33.514360000000003</v>
+      </c>
+      <c r="H29" s="2">
+        <f>AVERAGE(C29:G29)</f>
+        <v>43.785078999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>15800</v>
+      </c>
+      <c r="D30">
+        <v>11800</v>
+      </c>
+      <c r="E30">
+        <v>16200</v>
+      </c>
+      <c r="F30">
+        <v>10800</v>
+      </c>
+      <c r="G30">
+        <v>11800</v>
+      </c>
+      <c r="H30" s="3">
+        <f>AVERAGE(C30:G30)</f>
+        <v>13280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>160.036226</v>
+      </c>
+      <c r="D31">
+        <v>119.48035400000001</v>
+      </c>
+      <c r="E31">
+        <v>164.08170699999999</v>
+      </c>
+      <c r="F31">
+        <v>109.384199</v>
+      </c>
+      <c r="G31">
+        <v>119.48035400000001</v>
+      </c>
+      <c r="H31" s="2">
+        <f>AVERAGE(C31:G31)</f>
+        <v>134.49256800000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4544</v>
+      </c>
+      <c r="D36">
+        <v>4978</v>
+      </c>
+      <c r="E36">
+        <v>4033</v>
+      </c>
+      <c r="F36">
+        <v>4943</v>
+      </c>
+      <c r="G36">
+        <v>7905</v>
+      </c>
+      <c r="H36" s="3">
+        <f>AVERAGE(C36:G36)</f>
+        <v>5280.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>228.71326999999999</v>
+      </c>
+      <c r="D37">
+        <v>250.47939299999999</v>
+      </c>
+      <c r="E37">
+        <v>202.93577400000001</v>
+      </c>
+      <c r="F37">
+        <v>248.74997400000001</v>
+      </c>
+      <c r="G37">
+        <v>397.83370500000001</v>
+      </c>
+      <c r="H37" s="2">
+        <f>AVERAGE(C37:G37)</f>
+        <v>265.74242319999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>10200</v>
+      </c>
+      <c r="D38">
+        <v>11600</v>
+      </c>
+      <c r="E38">
+        <v>10000</v>
+      </c>
+      <c r="F38">
+        <v>12800</v>
+      </c>
+      <c r="G38">
+        <v>14800</v>
+      </c>
+      <c r="H38" s="3">
+        <f>AVERAGE(C38:G38)</f>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>511.46360399999998</v>
+      </c>
+      <c r="D39">
+        <v>581.62474499999996</v>
+      </c>
+      <c r="E39">
+        <v>501.37833999999998</v>
+      </c>
+      <c r="F39">
+        <v>641.78383899999994</v>
+      </c>
+      <c r="G39">
+        <v>742.03785000000005</v>
+      </c>
+      <c r="H39" s="2">
+        <f>AVERAGE(C39:G39)</f>
+        <v>595.65767559999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>6538</v>
+      </c>
+      <c r="D44">
+        <v>2296</v>
+      </c>
+      <c r="E44">
+        <v>4604</v>
+      </c>
+      <c r="F44">
+        <v>4146</v>
+      </c>
+      <c r="G44">
+        <v>3702</v>
+      </c>
+      <c r="H44" s="3">
+        <f>AVERAGE(C44:G44)</f>
+        <v>4257.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>655.93494499999997</v>
+      </c>
+      <c r="D45">
+        <v>230.643125</v>
+      </c>
+      <c r="E45">
+        <v>462.87734899999998</v>
+      </c>
+      <c r="F45">
+        <v>416.68776800000001</v>
+      </c>
+      <c r="G45">
+        <v>372.10530299999999</v>
+      </c>
+      <c r="H45" s="2">
+        <f>AVERAGE(C45:G45)</f>
+        <v>427.649698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>12600</v>
+      </c>
+      <c r="D46">
+        <v>10800</v>
+      </c>
+      <c r="E46">
+        <v>10600</v>
+      </c>
+      <c r="F46">
+        <v>17800</v>
+      </c>
+      <c r="G46">
+        <v>10800</v>
+      </c>
+      <c r="H46" s="3">
+        <f>AVERAGE(C46:G46)</f>
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1261.8080219999999</v>
+      </c>
+      <c r="D47">
+        <v>1082.884084</v>
+      </c>
+      <c r="E47">
+        <v>1062.829829</v>
+      </c>
+      <c r="F47">
+        <v>1784.873568</v>
+      </c>
+      <c r="G47">
+        <v>1082.427629</v>
+      </c>
+      <c r="H47" s="2">
+        <f>AVERAGE(C47:G47)</f>
+        <v>1254.9646263999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6ACDD5-2381-415E-AF5C-F46E61CB42CD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.5246</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10760</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.4545999999999999</v>
+      </c>
+      <c r="E2" s="12">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1.0114000000000001</v>
+      </c>
+      <c r="B3" s="11">
+        <v>15.0025</v>
+      </c>
+      <c r="C3" s="11">
+        <v>13400</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7.4992000000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>10.0168</v>
+      </c>
+      <c r="B4" s="11">
+        <v>134.50110000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13280</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43.7851</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
